--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>actual</t>
   </si>
@@ -27,6 +27,12 @@
   </si>
   <si>
     <t>Time MCF</t>
+  </si>
+  <si>
+    <t>Time MTZ</t>
+  </si>
+  <si>
+    <t>MTZ'</t>
   </si>
 </sst>
 </file>
@@ -41,6 +47,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -122,10 +129,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -146,6 +153,12 @@
       <c r="E1" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -163,6 +176,12 @@
       <c r="E2" s="0" t="n">
         <v>1.44</v>
       </c>
+      <c r="F2" s="0" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>5.76</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -180,6 +199,12 @@
       <c r="E3" s="0" t="n">
         <v>0.16</v>
       </c>
+      <c r="F3" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1.93</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -197,6 +222,12 @@
       <c r="E4" s="0" t="n">
         <v>1.59</v>
       </c>
+      <c r="F4" s="0" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>8.42</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -214,6 +245,12 @@
       <c r="E5" s="0" t="n">
         <v>0.15</v>
       </c>
+      <c r="F5" s="0" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>3.38</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -261,6 +298,9 @@
       </c>
       <c r="D8" s="0" t="n">
         <v>83.23</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1107.02</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
